--- a/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate303.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate303.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T20:14:33+00:00</t>
+    <t>2024-05-16T21:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate303.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate303.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T21:49:21+00:00</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate303.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-PpqmConsentTemplate303.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,7 +385,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -641,7 +641,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -818,7 +818,7 @@
     <t>Consent.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>The four anticipated uses for the Consent Resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-scope</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-scope|4.0.1</t>
   </si>
   <si>
     <t>Consent.scope.id</t>
@@ -985,7 +985,7 @@
     <t>A classification of the type of consents found in a consent statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-category</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-category|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1015,7 +1015,7 @@
     <t>Consent.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1078,7 +1078,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1137,7 +1137,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-epr-spid-length:EPR-SPID must be exactly 18 characters long {matches('^[0-9]{18}$')}epr-spid-startswith76133761:EPR-SPID must start with 76133761 {startsWith('76133761')}epr-spid-modulus-10:EPR-SPID must pass the modulus 10 check - https://www.gs1.org/services/how-calculate-check-digit-manually {(((10-((68+(substring(8,1).toInteger()*3)+(substring(9,1).toInteger()*1)+(substring(10,1).toInteger()*3)+(substring(11,1).toInteger()*1)+(substring(12,1).toInteger()*3)+(substring(13,1).toInteger()*1)+(substring(14,1).toInteger()*3)+(substring(15,1).toInteger()*1)+(substring(16,1).toInteger()*3))mod(10)))mod(10))=substring(17,1).toInteger())}</t>
+epr-spid-length:EPR-SPID must start with 76133761 followed by 10 digits {matches('^76133761[0-9]{10}$')}epr-spid-modulus-10:EPR-SPID must pass the modulus 10 check - https://www.gs1.org/services/how-calculate-check-digit-manually {(((10-((68+(substring(8,1).toInteger()*3)+(substring(9,1).toInteger()*1)+(substring(10,1).toInteger()*3)+(substring(11,1).toInteger()*1)+(substring(12,1).toInteger()*3)+(substring(13,1).toInteger()*1)+(substring(14,1).toInteger()*3)+(substring(15,1).toInteger()*1)+(substring(16,1).toInteger()*3))mod(10)))mod(10))=substring(17,1).toInteger())}</t>
   </si>
   <si>
     <t>/PolicySet/Target/Resources/Resource/ResourceMatch/AttributeValue/InstanceIdentifier/@extension</t>
@@ -1199,7 +1199,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|Practitioner|RelatedPerson|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
   </si>
   <si>
     <t>Attachment
-Reference(Consent|DocumentReference|Contract|QuestionnaireResponse)</t>
+Reference(Consent|4.0.1|DocumentReference|4.0.1|Contract|4.0.1|QuestionnaireResponse|4.0.1)</t>
   </si>
   <si>
     <t>Source from which this consent is taken</t>
@@ -1332,7 +1332,7 @@
     <t>Regulatory policy examples.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-policy</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-policy|4.0.1</t>
   </si>
   <si>
     <t>Consent.policyRule.id</t>
@@ -1504,7 +1504,7 @@
     <t>Consent.verification.verifiedWith</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1854,7 +1854,7 @@
     <t>Detailed codes for the consent action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-action</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-action|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.securityLabel</t>
@@ -1872,7 +1872,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.purpose</t>
@@ -1935,7 +1935,7 @@
     <t>The class (type) of information a consent rule covers.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-content-class</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-content-class|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.code</t>
@@ -1953,7 +1953,7 @@
     <t>If this code is found in an instance, then the exception applies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-content-code</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-content-code|4.0.1</t>
   </si>
   <si>
     <t>Consent.provision.dataPeriod</t>
@@ -2007,7 +2007,7 @@
     <t>Consent.provision.data.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -2357,7 +2357,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.5546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
